--- a/data/trans_orig/IP18A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{172B1495-6768-4F8F-8F66-D3F2324709F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F7C61C9-6F0E-4268-9AA9-9F290526C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EB47C534-6CC2-443F-88A9-C0CC37AADDF4}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0709C5AD-2143-4F55-8190-74F62A00127C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>13,37%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
     <t>79,72%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>36,67%</t>
   </si>
   <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
     <t>89,77%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>12,31%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
     <t>81,09%</t>
   </si>
   <si>
@@ -578,6 +578,60 @@
     <t>40,34%</t>
   </si>
   <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
     <t>90,68%</t>
   </si>
   <si>
@@ -632,60 +686,6 @@
     <t>11,47%</t>
   </si>
   <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
     <t>80,44%</t>
   </si>
   <si>
@@ -791,6 +791,60 @@
     <t>46,04%</t>
   </si>
   <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
     <t>82,81%</t>
   </si>
   <si>
@@ -843,60 +897,6 @@
   </si>
   <si>
     <t>24,22%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
   </si>
   <si>
     <t>80,15%</t>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849886C2-2CFF-4E06-A527-E8F8477DD47B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE546CD-784A-49F1-A79A-142E7EAFD124}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1615,10 +1615,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="D7" s="7">
-        <v>205144</v>
+        <v>171521</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1630,10 +1630,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="I7" s="7">
-        <v>190758</v>
+        <v>141289</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1645,10 +1645,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>587</v>
+        <v>465</v>
       </c>
       <c r="N7" s="7">
-        <v>395902</v>
+        <v>312810</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1666,10 +1666,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>20583</v>
+        <v>26781</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1681,10 +1681,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I8" s="7">
-        <v>27214</v>
+        <v>40950</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1696,10 +1696,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="N8" s="7">
-        <v>47796</v>
+        <v>67731</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1717,10 +1717,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>225727</v>
+        <v>198302</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1732,10 +1732,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="I9" s="7">
-        <v>217972</v>
+        <v>182239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1747,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>661</v>
+        <v>569</v>
       </c>
       <c r="N9" s="7">
-        <v>443698</v>
+        <v>380541</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1770,10 +1770,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="D10" s="7">
-        <v>171521</v>
+        <v>205144</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1785,10 +1785,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>206</v>
+        <v>280</v>
       </c>
       <c r="I10" s="7">
-        <v>141289</v>
+        <v>190758</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1800,10 +1800,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>465</v>
+        <v>587</v>
       </c>
       <c r="N10" s="7">
-        <v>312810</v>
+        <v>395902</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1821,10 +1821,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>26781</v>
+        <v>20583</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1836,10 +1836,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>40950</v>
+        <v>27214</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1851,10 +1851,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>67731</v>
+        <v>47796</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1872,10 +1872,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7">
-        <v>198302</v>
+        <v>225727</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1887,10 +1887,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="I12" s="7">
-        <v>182239</v>
+        <v>217972</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1902,10 +1902,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>569</v>
+        <v>661</v>
       </c>
       <c r="N12" s="7">
-        <v>380541</v>
+        <v>443698</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2088,7 +2088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92B8733-E29E-4E17-9938-F17233C539C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3237CFE-52D4-4CAA-B650-3EEDC4BC9EF0}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2361,10 +2361,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="D7" s="7">
-        <v>224527</v>
+        <v>193750</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2376,10 +2376,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="I7" s="7">
-        <v>209423</v>
+        <v>172547</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2391,10 +2391,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>627</v>
+        <v>509</v>
       </c>
       <c r="N7" s="7">
-        <v>433949</v>
+        <v>366296</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2412,10 +2412,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D8" s="7">
-        <v>25594</v>
+        <v>33551</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2427,10 +2427,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7">
-        <v>22204</v>
+        <v>44200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2442,10 +2442,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="N8" s="7">
-        <v>47798</v>
+        <v>77752</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2463,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="D9" s="7">
-        <v>250121</v>
+        <v>227301</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2478,10 +2478,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="I9" s="7">
-        <v>231627</v>
+        <v>216747</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2493,10 +2493,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>696</v>
+        <v>616</v>
       </c>
       <c r="N9" s="7">
-        <v>481747</v>
+        <v>444048</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2516,10 +2516,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>266</v>
+        <v>330</v>
       </c>
       <c r="D10" s="7">
-        <v>193750</v>
+        <v>224527</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2531,10 +2531,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="I10" s="7">
-        <v>172547</v>
+        <v>209423</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2546,10 +2546,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>509</v>
+        <v>627</v>
       </c>
       <c r="N10" s="7">
-        <v>366296</v>
+        <v>433949</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2567,10 +2567,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>33551</v>
+        <v>25594</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2582,10 +2582,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>44200</v>
+        <v>22204</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2597,10 +2597,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="N11" s="7">
-        <v>77752</v>
+        <v>47798</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2618,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="D12" s="7">
-        <v>227301</v>
+        <v>250121</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2633,10 +2633,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="I12" s="7">
-        <v>216747</v>
+        <v>231627</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2648,10 +2648,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>616</v>
+        <v>696</v>
       </c>
       <c r="N12" s="7">
-        <v>444048</v>
+        <v>481747</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2834,7 +2834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D869A5-0C46-48A4-B04E-C7658317085F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01824D9E-ACA2-47E2-976B-E9D86619409A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3107,10 +3107,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D7" s="7">
-        <v>220673</v>
+        <v>191457</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>179</v>
@@ -3122,10 +3122,10 @@
         <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="I7" s="7">
-        <v>214839</v>
+        <v>181496</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>182</v>
@@ -3137,10 +3137,10 @@
         <v>184</v>
       </c>
       <c r="M7" s="7">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="N7" s="7">
-        <v>435512</v>
+        <v>372953</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>185</v>
@@ -3158,10 +3158,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>22687</v>
+        <v>34307</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>188</v>
@@ -3173,10 +3173,10 @@
         <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I8" s="7">
-        <v>20600</v>
+        <v>32129</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>191</v>
@@ -3188,10 +3188,10 @@
         <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="N8" s="7">
-        <v>43286</v>
+        <v>66436</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>194</v>
@@ -3209,10 +3209,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D9" s="7">
-        <v>243360</v>
+        <v>225764</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3224,10 +3224,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I9" s="7">
-        <v>235439</v>
+        <v>213625</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3239,10 +3239,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="N9" s="7">
-        <v>478798</v>
+        <v>439389</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3262,10 +3262,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D10" s="7">
-        <v>191457</v>
+        <v>220673</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>197</v>
@@ -3277,10 +3277,10 @@
         <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="I10" s="7">
-        <v>181496</v>
+        <v>214839</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>200</v>
@@ -3292,10 +3292,10 @@
         <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>554</v>
+        <v>598</v>
       </c>
       <c r="N10" s="7">
-        <v>372953</v>
+        <v>435512</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>203</v>
@@ -3313,10 +3313,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>34307</v>
+        <v>22687</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>206</v>
@@ -3328,10 +3328,10 @@
         <v>208</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>32129</v>
+        <v>20600</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>209</v>
@@ -3343,10 +3343,10 @@
         <v>211</v>
       </c>
       <c r="M11" s="7">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>66436</v>
+        <v>43286</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>212</v>
@@ -3364,10 +3364,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D12" s="7">
-        <v>225764</v>
+        <v>243360</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3379,10 +3379,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>213625</v>
+        <v>235439</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3394,10 +3394,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="N12" s="7">
-        <v>439389</v>
+        <v>478798</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3580,7 +3580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9E3344-B65D-4087-AF45-8C8EEFC3DC4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED9D1CD-9367-43DD-AF97-532253A5FF5A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3853,10 +3853,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>50270</v>
+        <v>33165</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>250</v>
@@ -3868,10 +3868,10 @@
         <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>35844</v>
+        <v>29773</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>253</v>
@@ -3883,10 +3883,10 @@
         <v>255</v>
       </c>
       <c r="M7" s="7">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="N7" s="7">
-        <v>86113</v>
+        <v>62939</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>256</v>
@@ -3904,10 +3904,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>10432</v>
+        <v>5015</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>259</v>
@@ -3919,10 +3919,10 @@
         <v>261</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>6640</v>
+        <v>4963</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>262</v>
@@ -3934,10 +3934,10 @@
         <v>264</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>17073</v>
+        <v>9978</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>265</v>
@@ -3955,10 +3955,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>60702</v>
+        <v>38180</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3970,10 +3970,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>42484</v>
+        <v>34736</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3985,10 +3985,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N9" s="7">
-        <v>103186</v>
+        <v>72917</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4008,10 +4008,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>33165</v>
+        <v>50270</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>268</v>
@@ -4023,10 +4023,10 @@
         <v>270</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>29773</v>
+        <v>35844</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>271</v>
@@ -4038,10 +4038,10 @@
         <v>273</v>
       </c>
       <c r="M10" s="7">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="N10" s="7">
-        <v>62939</v>
+        <v>86113</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>274</v>
@@ -4059,10 +4059,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>5015</v>
+        <v>10432</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>277</v>
@@ -4074,10 +4074,10 @@
         <v>279</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>4963</v>
+        <v>6640</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>280</v>
@@ -4089,10 +4089,10 @@
         <v>282</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N11" s="7">
-        <v>9978</v>
+        <v>17073</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>283</v>
@@ -4110,10 +4110,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D12" s="7">
-        <v>38180</v>
+        <v>60702</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4125,10 +4125,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>34736</v>
+        <v>42484</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4140,10 +4140,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="N12" s="7">
-        <v>72917</v>
+        <v>103186</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP18A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F7C61C9-6F0E-4268-9AA9-9F290526C863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18907A7-6600-4D20-ADA6-728B0AB546B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0709C5AD-2143-4F55-8190-74F62A00127C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04CD83F9-912F-4A60-A4F3-7FDF3E232897}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
   <si>
     <t>Menores según su última visita al médico fue por control de salud periodico en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -68,889 +68,1075 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>90,19%</t>
   </si>
   <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2015 (Tasa respuesta: 90,5%)</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2015 (Tasa respuesta: 90,5%)</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>85,8%</t>
   </si>
   <si>
     <t>80,16%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
 </sst>
 </file>
@@ -961,7 +1147,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1057,39 +1243,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1141,7 +1327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1252,13 +1438,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1267,6 +1446,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1331,19 +1517,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE546CD-784A-49F1-A79A-142E7EAFD124}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA33093-A343-48E4-A956-32B415CE6AE6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1460,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>120784</v>
+        <v>51158</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1475,10 +1681,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>126331</v>
+        <v>42218</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1490,10 +1696,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>376</v>
+        <v>138</v>
       </c>
       <c r="N4" s="7">
-        <v>247115</v>
+        <v>93376</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1511,10 +1717,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7">
-        <v>79202</v>
+        <v>56523</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1526,10 +1732,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>71476</v>
+        <v>59496</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1541,10 +1747,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="N5" s="7">
-        <v>150678</v>
+        <v>116019</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1562,10 +1768,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="D6" s="7">
-        <v>199986</v>
+        <v>107681</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1577,10 +1783,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="I6" s="7">
-        <v>197807</v>
+        <v>101714</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1592,10 +1798,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>601</v>
+        <v>317</v>
       </c>
       <c r="N6" s="7">
-        <v>397793</v>
+        <v>209395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1615,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>259</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7">
-        <v>171521</v>
+        <v>48134</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1630,10 +1836,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="I7" s="7">
-        <v>141289</v>
+        <v>61567</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1645,10 +1851,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>465</v>
+        <v>168</v>
       </c>
       <c r="N7" s="7">
-        <v>312810</v>
+        <v>109701</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1666,10 +1872,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>26781</v>
+        <v>185268</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1681,10 +1887,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="I8" s="7">
-        <v>40950</v>
+        <v>170019</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1696,10 +1902,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>104</v>
+        <v>530</v>
       </c>
       <c r="N8" s="7">
-        <v>67731</v>
+        <v>355288</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1717,10 +1923,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="D9" s="7">
-        <v>198302</v>
+        <v>233402</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1732,10 +1938,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="I9" s="7">
-        <v>182239</v>
+        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1747,10 +1953,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>569</v>
+        <v>698</v>
       </c>
       <c r="N9" s="7">
-        <v>380541</v>
+        <v>464989</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1770,10 +1976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>307</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>205144</v>
+        <v>15932</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1785,10 +1991,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>280</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>190758</v>
+        <v>19981</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1800,10 +2006,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>587</v>
+        <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>395902</v>
+        <v>35913</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1821,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7">
-        <v>20583</v>
+        <v>99739</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1836,10 +2042,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="I11" s="7">
-        <v>27214</v>
+        <v>86049</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1851,10 +2057,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="N11" s="7">
-        <v>47796</v>
+        <v>185788</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1872,10 +2078,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="D12" s="7">
-        <v>225727</v>
+        <v>115671</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1887,10 +2093,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="I12" s="7">
-        <v>217972</v>
+        <v>106030</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1902,10 +2108,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>661</v>
+        <v>331</v>
       </c>
       <c r="N12" s="7">
-        <v>443698</v>
+        <v>221701</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1919,55 +2125,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>748</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>497449</v>
+        <v>11342</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>680</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>458378</v>
+        <v>15873</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1428</v>
+        <v>42</v>
       </c>
       <c r="N13" s="7">
-        <v>955827</v>
+        <v>27215</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +2182,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="D14" s="7">
-        <v>126565</v>
+        <v>155918</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I14" s="7">
-        <v>139640</v>
+        <v>142814</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="N14" s="7">
-        <v>266205</v>
+        <v>298732</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,55 +2233,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>252</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167260</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>233</v>
+      </c>
+      <c r="I15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>485</v>
+      </c>
+      <c r="N15" s="7">
+        <v>325947</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>191</v>
+      </c>
+      <c r="D16" s="7">
+        <v>126565</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>212</v>
+      </c>
+      <c r="I16" s="7">
+        <v>139640</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>403</v>
+      </c>
+      <c r="N16" s="7">
+        <v>266205</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>748</v>
+      </c>
+      <c r="D17" s="7">
+        <v>497449</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>680</v>
+      </c>
+      <c r="I17" s="7">
+        <v>458378</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1428</v>
+      </c>
+      <c r="N17" s="7">
+        <v>955827</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>939</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>624014</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>892</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>598018</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1831</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1222032</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2088,8 +2455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3237CFE-52D4-4CAA-B650-3EEDC4BC9EF0}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3992D69D-9AE7-4718-8A1F-D2BCD21D8F23}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2105,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2206,49 +2573,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="D4" s="7">
-        <v>157339</v>
+        <v>53982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="I4" s="7">
-        <v>141278</v>
+        <v>57256</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="N4" s="7">
-        <v>298617</v>
+        <v>111237</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,49 +2624,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>75055</v>
+        <v>88466</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="I5" s="7">
-        <v>73405</v>
+        <v>83613</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="N5" s="7">
-        <v>148460</v>
+        <v>172079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>328</v>
+        <v>202</v>
       </c>
       <c r="D6" s="7">
-        <v>232394</v>
+        <v>142448</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2323,10 +2690,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>322</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>214683</v>
+        <v>140869</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2705,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>650</v>
+        <v>412</v>
       </c>
       <c r="N6" s="7">
-        <v>447077</v>
+        <v>283316</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2361,49 +2728,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>193750</v>
+        <v>46220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>172547</v>
+        <v>46152</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>509</v>
+        <v>132</v>
       </c>
       <c r="N7" s="7">
-        <v>366296</v>
+        <v>92372</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,49 +2779,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="D8" s="7">
-        <v>33551</v>
+        <v>208519</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="I8" s="7">
-        <v>44200</v>
+        <v>173653</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>107</v>
+        <v>536</v>
       </c>
       <c r="N8" s="7">
-        <v>77752</v>
+        <v>382172</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,10 +2830,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="D9" s="7">
-        <v>227301</v>
+        <v>254739</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2478,10 +2845,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="I9" s="7">
-        <v>216747</v>
+        <v>219805</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2493,10 +2860,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>616</v>
+        <v>668</v>
       </c>
       <c r="N9" s="7">
-        <v>444048</v>
+        <v>474544</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2516,49 +2883,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>224527</v>
+        <v>18673</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>209423</v>
+        <v>20813</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>627</v>
+        <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>433949</v>
+        <v>39486</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,49 +2934,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
-        <v>25594</v>
+        <v>131001</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="I11" s="7">
-        <v>22204</v>
+        <v>129401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>69</v>
+        <v>373</v>
       </c>
       <c r="N11" s="7">
-        <v>47798</v>
+        <v>260402</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,10 +2985,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>367</v>
+        <v>215</v>
       </c>
       <c r="D12" s="7">
-        <v>250121</v>
+        <v>149674</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2633,10 +3000,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="I12" s="7">
-        <v>231627</v>
+        <v>150214</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2648,10 +3015,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>696</v>
+        <v>428</v>
       </c>
       <c r="N12" s="7">
-        <v>481747</v>
+        <v>299888</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2665,55 +3032,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>818</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>575615</v>
+        <v>15326</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>753</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>523247</v>
+        <v>15589</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>1571</v>
+        <v>44</v>
       </c>
       <c r="N13" s="7">
-        <v>1098862</v>
+        <v>30915</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,49 +3089,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="D14" s="7">
-        <v>134200</v>
+        <v>147628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I14" s="7">
-        <v>139810</v>
+        <v>136581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="N14" s="7">
-        <v>274010</v>
+        <v>284209</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,55 +3140,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>239</v>
+      </c>
+      <c r="D15" s="7">
+        <v>162954</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>215</v>
+      </c>
+      <c r="I15" s="7">
+        <v>152170</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>454</v>
+      </c>
+      <c r="N15" s="7">
+        <v>315124</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>190</v>
+      </c>
+      <c r="D16" s="7">
+        <v>134200</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
+        <v>201</v>
+      </c>
+      <c r="I16" s="7">
+        <v>139810</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" s="7">
+        <v>391</v>
+      </c>
+      <c r="N16" s="7">
+        <v>274010</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>818</v>
+      </c>
+      <c r="D17" s="7">
+        <v>575615</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
+        <v>753</v>
+      </c>
+      <c r="I17" s="7">
+        <v>523247</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1571</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1098862</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1008</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>709815</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>954</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>663057</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1962</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1372872</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2834,8 +3362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01824D9E-ACA2-47E2-976B-E9D86619409A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C397B6-54E8-4E2E-A480-966AE4885B3D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2851,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2952,49 +3480,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>191</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>126755</v>
+        <v>51738</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="I4" s="7">
-        <v>122806</v>
+        <v>56891</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>391</v>
+        <v>169</v>
       </c>
       <c r="N4" s="7">
-        <v>249560</v>
+        <v>108630</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,49 +3531,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D5" s="7">
-        <v>74041</v>
+        <v>66080</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I5" s="7">
-        <v>69399</v>
+        <v>70587</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="N5" s="7">
-        <v>143440</v>
+        <v>136667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,10 +3582,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7">
-        <v>200796</v>
+        <v>117818</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3069,10 +3597,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="I6" s="7">
-        <v>192205</v>
+        <v>127478</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3084,10 +3612,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>613</v>
+        <v>381</v>
       </c>
       <c r="N6" s="7">
-        <v>393000</v>
+        <v>245297</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3107,49 +3635,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>191457</v>
+        <v>48086</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>278</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>181496</v>
+        <v>33044</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>554</v>
+        <v>122</v>
       </c>
       <c r="N7" s="7">
-        <v>372953</v>
+        <v>81129</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,49 +3686,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="D8" s="7">
-        <v>34307</v>
+        <v>188162</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="I8" s="7">
-        <v>32129</v>
+        <v>160097</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
-        <v>99</v>
+        <v>530</v>
       </c>
       <c r="N8" s="7">
-        <v>66436</v>
+        <v>348259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,10 +3737,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="D9" s="7">
-        <v>225764</v>
+        <v>236248</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3224,10 +3752,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>213625</v>
+        <v>193141</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3239,10 +3767,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N9" s="7">
-        <v>439389</v>
+        <v>429388</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3262,49 +3790,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>298</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>220673</v>
+        <v>15724</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="H10" s="7">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>214839</v>
+        <v>23316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>435512</v>
+        <v>39041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,49 +3841,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>22687</v>
+        <v>152390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>211</v>
       </c>
       <c r="I11" s="7">
-        <v>20600</v>
+        <v>146182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>60</v>
+        <v>422</v>
       </c>
       <c r="N11" s="7">
-        <v>43286</v>
+        <v>298572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>233</v>
       </c>
       <c r="D12" s="7">
-        <v>243360</v>
+        <v>168114</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3379,10 +3907,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>235439</v>
+        <v>169498</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3394,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>658</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>478798</v>
+        <v>337613</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3411,55 +3939,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>765</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>538884</v>
+        <v>15486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>778</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>519141</v>
+        <v>8876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>1543</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>1058025</v>
+        <v>24362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,49 +3996,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>131035</v>
+        <v>132252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>122128</v>
+        <v>142276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N14" s="7">
-        <v>253163</v>
+        <v>274528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,55 +4047,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>199</v>
+      </c>
+      <c r="D15" s="7">
+        <v>147738</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>215</v>
+      </c>
+      <c r="I15" s="7">
+        <v>151152</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>414</v>
+      </c>
+      <c r="N15" s="7">
+        <v>298890</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>192</v>
+      </c>
+      <c r="D16" s="7">
+        <v>131035</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>189</v>
+      </c>
+      <c r="I16" s="7">
+        <v>122128</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M16" s="7">
+        <v>381</v>
+      </c>
+      <c r="N16" s="7">
+        <v>253163</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>765</v>
+      </c>
+      <c r="D17" s="7">
+        <v>538884</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="7">
+        <v>778</v>
+      </c>
+      <c r="I17" s="7">
+        <v>519141</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1543</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1058025</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>957</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>669919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>967</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>641269</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1924</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1311188</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3580,8 +4269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED9D1CD-9367-43DD-AF97-532253A5FF5A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B460558B-3834-4B1E-B79E-D3EA379ACB7A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3597,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3698,49 +4387,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>17899</v>
+        <v>7690</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>14499</v>
+        <v>7551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>32398</v>
+        <v>15241</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,49 +4438,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>9644</v>
+        <v>9981</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>8203</v>
+        <v>8780</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>17847</v>
+        <v>18761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,10 +4489,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>27543</v>
+        <v>17671</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3815,10 +4504,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>22702</v>
+        <v>16331</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3830,10 +4519,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>50245</v>
+        <v>34002</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3853,49 +4542,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>33165</v>
+        <v>5035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>29773</v>
+        <v>3558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>62939</v>
+        <v>8593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,49 +4593,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7">
-        <v>5015</v>
+        <v>27579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>4963</v>
+        <v>24392</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="N8" s="7">
-        <v>9978</v>
+        <v>51971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,7 +4647,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>38180</v>
+        <v>32614</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3970,10 +4659,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
-        <v>34736</v>
+        <v>27950</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3985,10 +4674,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>72917</v>
+        <v>60564</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4008,49 +4697,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>50270</v>
+        <v>4667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>35844</v>
+        <v>3827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>86113</v>
+        <v>8495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,49 +4748,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>10432</v>
+        <v>30393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>6640</v>
+        <v>26642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>17073</v>
+        <v>57034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,10 +4799,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>60702</v>
+        <v>35060</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4125,10 +4814,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>42484</v>
+        <v>30469</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4140,10 +4829,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>103186</v>
+        <v>65529</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4157,55 +4846,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>101333</v>
+        <v>7699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>80117</v>
+        <v>4870</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>181450</v>
+        <v>12569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,49 +4903,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>25092</v>
+        <v>33382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I14" s="7">
-        <v>19806</v>
+        <v>20303</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N14" s="7">
-        <v>44898</v>
+        <v>53684</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,55 +4954,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>41081</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>37</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25173</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>90</v>
+      </c>
+      <c r="N15" s="7">
+        <v>66253</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25092</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" s="7">
+        <v>30</v>
+      </c>
+      <c r="I16" s="7">
+        <v>19806</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M16" s="7">
+        <v>71</v>
+      </c>
+      <c r="N16" s="7">
+        <v>44898</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>147</v>
+      </c>
+      <c r="D17" s="7">
+        <v>101333</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="7">
+        <v>123</v>
+      </c>
+      <c r="I17" s="7">
+        <v>80117</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M17" s="7">
+        <v>270</v>
+      </c>
+      <c r="N17" s="7">
+        <v>181450</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>188</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>126425</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>153</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>99923</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>341</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>226348</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP18A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A18907A7-6600-4D20-ADA6-728B0AB546B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F87762A-020D-4FD7-84F4-994865DA738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{04CD83F9-912F-4A60-A4F3-7FDF3E232897}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF484DA8-B5CE-409A-81B0-BD5BDD03A359}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="378">
   <si>
     <t>Menores según su última visita al médico fue por control de salud periodico en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>47,51%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
   </si>
   <si>
     <t>41,51%</t>
   </si>
   <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
   </si>
   <si>
     <t>44,59%</t>
   </si>
   <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>52,49%</t>
   </si>
   <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
   <si>
     <t>58,49%</t>
   </si>
   <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
   </si>
   <si>
     <t>55,41%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>20,62%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
   </si>
   <si>
     <t>76,41%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,55 +197,55 @@
     <t>13,77%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>18,84%</t>
   </si>
   <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>86,23%</t>
   </si>
   <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>81,16%</t>
   </si>
   <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -254,889 +254,925 @@
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>93,37%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2016 (Tasa respuesta: 90,5%)</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>83,41%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2015 (Tasa respuesta: 90,5%)</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>87,44%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>92,97%</t>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
   </si>
   <si>
     <t>19,35%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
   </si>
   <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>14,2%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
   </si>
   <si>
     <t>19,84%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>85,8%</t>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>80,16%</t>
   </si>
   <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA33093-A343-48E4-A956-32B415CE6AE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E632EF-C69F-4C2F-B3F1-766884BD8A79}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2455,7 +2491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3992D69D-9AE7-4718-8A1F-D2BCD21D8F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB514C-D6C3-4B2F-8EA5-8AEB708ABF86}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3362,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C397B6-54E8-4E2E-A480-966AE4885B3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DE97B-AEE7-4BEE-8159-9BB7BA5B7448}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3796,13 +3832,13 @@
         <v>15724</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -3811,13 +3847,13 @@
         <v>23316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3826,13 +3862,13 @@
         <v>39041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3883,13 @@
         <v>152390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
@@ -3862,13 +3898,13 @@
         <v>146182</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>422</v>
@@ -3877,13 +3913,13 @@
         <v>298572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3987,13 @@
         <v>15486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3966,13 +4002,13 @@
         <v>8876</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3981,13 +4017,13 @@
         <v>24362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4038,13 @@
         <v>132252</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -4017,13 +4053,13 @@
         <v>142276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>379</v>
@@ -4032,13 +4068,13 @@
         <v>274528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4142,13 @@
         <v>131035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>189</v>
@@ -4121,13 +4157,13 @@
         <v>122128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>381</v>
@@ -4136,13 +4172,13 @@
         <v>253163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4193,13 @@
         <v>538884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>778</v>
@@ -4172,13 +4208,13 @@
         <v>519141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>1543</v>
@@ -4187,13 +4223,13 @@
         <v>1058025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B460558B-3834-4B1E-B79E-D3EA379ACB7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF159213-6C0C-42BC-9225-96E6823718C5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4286,7 +4322,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4393,13 +4429,13 @@
         <v>7690</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4408,13 +4444,13 @@
         <v>7551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4423,13 +4459,13 @@
         <v>15241</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4480,13 @@
         <v>9981</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4459,13 +4495,13 @@
         <v>8780</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4474,13 +4510,13 @@
         <v>18761</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4584,13 @@
         <v>5035</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4563,13 +4599,13 @@
         <v>3558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4578,13 +4614,13 @@
         <v>8593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4635,13 @@
         <v>27579</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -4614,13 +4650,13 @@
         <v>24392</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
@@ -4629,13 +4665,13 @@
         <v>51971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4739,13 @@
         <v>4667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4718,13 +4754,13 @@
         <v>3827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -4733,13 +4769,13 @@
         <v>8495</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4790,13 @@
         <v>30393</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>231</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -4769,13 +4805,13 @@
         <v>26642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>74</v>
@@ -4784,13 +4820,13 @@
         <v>57034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,13 +4894,13 @@
         <v>7699</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4873,13 +4909,13 @@
         <v>4870</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4888,13 +4924,13 @@
         <v>12569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4945,13 @@
         <v>33382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -4924,13 +4960,13 @@
         <v>20303</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -4939,13 +4975,13 @@
         <v>53684</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,13 +5049,13 @@
         <v>25092</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -5028,13 +5064,13 @@
         <v>19806</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -5043,13 +5079,13 @@
         <v>44898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,13 +5100,13 @@
         <v>101333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -5079,13 +5115,13 @@
         <v>80117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
@@ -5094,13 +5130,13 @@
         <v>181450</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP18A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F87762A-020D-4FD7-84F4-994865DA738F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48AB5411-2984-4561-85E5-BC54E57E9DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF484DA8-B5CE-409A-81B0-BD5BDD03A359}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B4DCE264-97B4-40DA-A4CB-B0BC080D47D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="378">
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2007 (Tasa respuesta: 87,02%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2007 (Tasa respuesta: 87,02%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
     <t>47,51%</t>
   </si>
   <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
   <si>
     <t>44,59%</t>
   </si>
   <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
     <t>52,49%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
   </si>
   <si>
     <t>55,41%</t>
   </si>
   <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1042 +137,1024 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>20,44%</t>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2012 (Tasa respuesta: 93,47%)</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2016 (Tasa respuesta: 90,5%)</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por control de salud periódico en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
   </si>
   <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>73,65%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2012 (Tasa respuesta: 93,47%)</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2016 (Tasa respuesta: 90,5%)</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por control de salud periodico en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E632EF-C69F-4C2F-B3F1-766884BD8A79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183FA4B3-9979-4AAB-B760-474A479E40DD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1702,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7">
-        <v>51158</v>
+        <v>42218</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1717,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7">
-        <v>42218</v>
+        <v>51158</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1753,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D5" s="7">
-        <v>56523</v>
+        <v>59496</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1768,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I5" s="7">
-        <v>59496</v>
+        <v>56523</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1804,25 +1786,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>155</v>
+      </c>
+      <c r="D6" s="7">
+        <v>101714</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>162</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>107681</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>155</v>
-      </c>
-      <c r="I6" s="7">
-        <v>101714</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1857,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D7" s="7">
-        <v>48134</v>
+        <v>61567</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1872,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="I7" s="7">
-        <v>61567</v>
+        <v>48134</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1908,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="D8" s="7">
-        <v>185268</v>
+        <v>170019</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1923,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="I8" s="7">
-        <v>170019</v>
+        <v>185268</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1959,25 +1941,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>346</v>
+      </c>
+      <c r="D9" s="7">
+        <v>231586</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>352</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>233402</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>346</v>
-      </c>
-      <c r="I9" s="7">
-        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2012,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>15932</v>
+        <v>19981</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2027,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>19981</v>
+        <v>15932</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2063,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D11" s="7">
-        <v>99739</v>
+        <v>86049</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2078,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I11" s="7">
-        <v>86049</v>
+        <v>99739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2114,25 +2096,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>158</v>
+      </c>
+      <c r="D12" s="7">
+        <v>106030</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>173</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>115671</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>158</v>
-      </c>
-      <c r="I12" s="7">
-        <v>106030</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2167,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>11342</v>
+        <v>15873</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2182,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>15873</v>
+        <v>11342</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2218,10 +2200,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7">
-        <v>155918</v>
+        <v>142814</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2233,10 +2215,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="I14" s="7">
-        <v>142814</v>
+        <v>155918</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2269,25 +2251,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>252</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>167260</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
-      <c r="I15" s="7">
-        <v>158687</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2322,10 +2304,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D16" s="7">
-        <v>126565</v>
+        <v>139640</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2337,10 +2319,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="I16" s="7">
-        <v>139640</v>
+        <v>126565</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2373,10 +2355,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>748</v>
+        <v>680</v>
       </c>
       <c r="D17" s="7">
-        <v>497449</v>
+        <v>458378</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2388,10 +2370,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>680</v>
+        <v>748</v>
       </c>
       <c r="I17" s="7">
-        <v>458378</v>
+        <v>497449</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2424,25 +2406,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>892</v>
+      </c>
+      <c r="D18" s="7">
+        <v>598018</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>939</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>624014</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>892</v>
-      </c>
-      <c r="I18" s="7">
-        <v>598018</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2491,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FB514C-D6C3-4B2F-8EA5-8AEB708ABF86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FF6C53-58F2-4DFA-85C1-B21216E24409}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2609,10 +2591,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7">
-        <v>53982</v>
+        <v>57256</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2624,10 +2606,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I4" s="7">
-        <v>57256</v>
+        <v>53982</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2648,10 +2630,10 @@
         <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,31 +2645,31 @@
         <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>88466</v>
+        <v>83613</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>126</v>
       </c>
       <c r="I5" s="7">
-        <v>83613</v>
+        <v>88466</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>252</v>
@@ -2696,13 +2678,13 @@
         <v>172079</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,25 +2693,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>210</v>
+      </c>
+      <c r="D6" s="7">
+        <v>140869</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>202</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>142448</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>210</v>
-      </c>
-      <c r="I6" s="7">
-        <v>140869</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2767,31 +2749,31 @@
         <v>66</v>
       </c>
       <c r="D7" s="7">
-        <v>46220</v>
+        <v>46152</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>46152</v>
+        <v>46220</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>132</v>
@@ -2800,13 +2782,13 @@
         <v>92372</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,34 +2797,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>250</v>
+      </c>
+      <c r="D8" s="7">
+        <v>173653</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7">
         <v>286</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>208519</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="7">
-        <v>250</v>
-      </c>
-      <c r="I8" s="7">
-        <v>173653</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>536</v>
@@ -2851,13 +2833,13 @@
         <v>382172</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,25 +2848,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>316</v>
+      </c>
+      <c r="D9" s="7">
+        <v>219805</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>352</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>254739</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>316</v>
-      </c>
-      <c r="I9" s="7">
-        <v>219805</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2919,34 +2901,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20813</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="7">
         <v>26</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>18673</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="7">
-        <v>29</v>
-      </c>
-      <c r="I10" s="7">
-        <v>20813</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -2955,13 +2937,13 @@
         <v>39486</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,34 +2952,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>184</v>
+      </c>
+      <c r="D11" s="7">
+        <v>129401</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
         <v>189</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>131001</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="7">
-        <v>184</v>
-      </c>
-      <c r="I11" s="7">
-        <v>129401</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>373</v>
@@ -3006,13 +2988,13 @@
         <v>260402</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,25 +3003,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>213</v>
+      </c>
+      <c r="D12" s="7">
+        <v>150214</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>215</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149674</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>213</v>
-      </c>
-      <c r="I12" s="7">
-        <v>150214</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3077,31 +3059,31 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>15326</v>
+        <v>15589</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>15589</v>
+        <v>15326</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -3110,13 +3092,13 @@
         <v>30915</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,34 +3107,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>193</v>
+      </c>
+      <c r="D14" s="7">
+        <v>136581</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
         <v>217</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>147628</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="7">
-        <v>193</v>
-      </c>
-      <c r="I14" s="7">
-        <v>136581</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>410</v>
@@ -3161,13 +3143,13 @@
         <v>284209</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,25 +3158,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>215</v>
+      </c>
+      <c r="D15" s="7">
+        <v>152170</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>239</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>162954</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>215</v>
-      </c>
-      <c r="I15" s="7">
-        <v>152170</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3229,34 +3211,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>201</v>
+      </c>
+      <c r="D16" s="7">
+        <v>139810</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
         <v>190</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>134200</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H16" s="7">
-        <v>201</v>
-      </c>
-      <c r="I16" s="7">
-        <v>139810</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>391</v>
@@ -3265,13 +3247,13 @@
         <v>274010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,34 +3262,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>753</v>
+      </c>
+      <c r="D17" s="7">
+        <v>523247</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="7">
         <v>818</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>575615</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="7">
-        <v>753</v>
-      </c>
-      <c r="I17" s="7">
-        <v>523247</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>1571</v>
@@ -3316,13 +3298,13 @@
         <v>1098862</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,25 +3313,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>954</v>
+      </c>
+      <c r="D18" s="7">
+        <v>663057</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1008</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>709815</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>954</v>
-      </c>
-      <c r="I18" s="7">
-        <v>663057</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3398,7 +3380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DE97B-AEE7-4BEE-8159-9BB7BA5B7448}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD1570D-EA2D-406B-B755-FFDEF971CAEF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3415,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3516,34 +3498,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>91</v>
+      </c>
+      <c r="D4" s="7">
+        <v>56891</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>78</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>51738</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="7">
-        <v>91</v>
-      </c>
-      <c r="I4" s="7">
-        <v>56891</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>169</v>
@@ -3552,13 +3534,13 @@
         <v>108630</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,34 +3549,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>113</v>
+      </c>
+      <c r="D5" s="7">
+        <v>70587</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="7">
         <v>99</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>66080</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="7">
-        <v>113</v>
-      </c>
-      <c r="I5" s="7">
-        <v>70587</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -3603,13 +3585,13 @@
         <v>136667</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,25 +3600,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>204</v>
+      </c>
+      <c r="D6" s="7">
+        <v>127478</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>177</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>117818</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>204</v>
-      </c>
-      <c r="I6" s="7">
-        <v>127478</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3671,34 +3653,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7">
+        <v>33044</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
         <v>71</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>48086</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="7">
-        <v>51</v>
-      </c>
-      <c r="I7" s="7">
-        <v>33044</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -3707,13 +3689,13 @@
         <v>81129</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,34 +3704,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>253</v>
+      </c>
+      <c r="D8" s="7">
+        <v>160097</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="7">
         <v>277</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>188162</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" s="7">
-        <v>253</v>
-      </c>
-      <c r="I8" s="7">
-        <v>160097</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>530</v>
@@ -3758,13 +3740,13 @@
         <v>348259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,25 +3755,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>304</v>
+      </c>
+      <c r="D9" s="7">
+        <v>193141</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>348</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>236248</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>304</v>
-      </c>
-      <c r="I9" s="7">
-        <v>193141</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3826,34 +3808,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7">
+        <v>23316</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="7">
         <v>22</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>15724</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="7">
-        <v>33</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23316</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3862,13 +3844,13 @@
         <v>39041</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,31 +3862,31 @@
         <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>152390</v>
+        <v>146182</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>211</v>
       </c>
       <c r="I11" s="7">
-        <v>146182</v>
+        <v>152390</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>422</v>
@@ -3913,13 +3895,13 @@
         <v>298572</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,25 +3910,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>244</v>
+      </c>
+      <c r="D12" s="7">
+        <v>169498</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>233</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>168114</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>244</v>
-      </c>
-      <c r="I12" s="7">
-        <v>169498</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3981,34 +3963,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8876</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="7">
         <v>21</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>15486</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8876</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -4017,13 +3999,13 @@
         <v>24362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,34 +4014,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>201</v>
+      </c>
+      <c r="D14" s="7">
+        <v>142276</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14" s="7">
         <v>178</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>132252</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="H14" s="7">
-        <v>201</v>
-      </c>
-      <c r="I14" s="7">
-        <v>142276</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>379</v>
@@ -4068,13 +4050,13 @@
         <v>274528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,25 +4065,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>215</v>
+      </c>
+      <c r="D15" s="7">
+        <v>151152</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>199</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>147738</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>215</v>
-      </c>
-      <c r="I15" s="7">
-        <v>151152</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4136,34 +4118,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>189</v>
+      </c>
+      <c r="D16" s="7">
+        <v>122128</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="7">
         <v>192</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>131035</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="7">
-        <v>189</v>
-      </c>
-      <c r="I16" s="7">
-        <v>122128</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>381</v>
@@ -4172,13 +4154,13 @@
         <v>253163</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,34 +4169,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>778</v>
+      </c>
+      <c r="D17" s="7">
+        <v>519141</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="7">
         <v>765</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>538884</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H17" s="7">
-        <v>778</v>
-      </c>
-      <c r="I17" s="7">
-        <v>519141</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>1543</v>
@@ -4223,13 +4205,13 @@
         <v>1058025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,25 +4220,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>967</v>
+      </c>
+      <c r="D18" s="7">
+        <v>641269</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>957</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>669919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>967</v>
-      </c>
-      <c r="I18" s="7">
-        <v>641269</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4305,7 +4287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF159213-6C0C-42BC-9225-96E6823718C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDFB869-5097-45E1-A8C0-DB869FD270E6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4322,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4423,49 +4405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7575</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="7">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
-        <v>7690</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>7722</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H4" s="7">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7">
-        <v>7551</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>15241</v>
+        <v>15297</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,49 +4456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8720</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
-        <v>9981</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>10725</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8780</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
       </c>
       <c r="N5" s="7">
-        <v>18761</v>
+        <v>19445</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,25 +4507,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16295</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
-        <v>17671</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
       <c r="I6" s="7">
-        <v>16331</v>
+        <v>18447</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4558,7 +4540,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>34002</v>
+        <v>34742</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4578,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3585</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
-        <v>5035</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>5049</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3558</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>8593</v>
+        <v>8634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24613</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="7">
         <v>45</v>
       </c>
-      <c r="D8" s="7">
-        <v>27579</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>28679</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H8" s="7">
-        <v>37</v>
-      </c>
-      <c r="I8" s="7">
-        <v>24392</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>82</v>
       </c>
       <c r="N8" s="7">
-        <v>51971</v>
+        <v>53291</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,25 +4662,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28198</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
-        <v>32614</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>43</v>
-      </c>
       <c r="I9" s="7">
-        <v>27950</v>
+        <v>33728</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4713,7 +4695,7 @@
         <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>60564</v>
+        <v>61925</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4733,49 +4715,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3558</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
-        <v>4667</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>4572</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3827</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>8495</v>
+        <v>8130</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>36</v>
+      </c>
+      <c r="D11" s="7">
+        <v>27738</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="7">
         <v>38</v>
       </c>
-      <c r="D11" s="7">
-        <v>30393</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>32299</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H11" s="7">
-        <v>36</v>
-      </c>
-      <c r="I11" s="7">
-        <v>26642</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>57034</v>
+        <v>60037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,25 +4817,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31296</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>44</v>
       </c>
-      <c r="D12" s="7">
-        <v>35060</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>41</v>
-      </c>
       <c r="I12" s="7">
-        <v>30469</v>
+        <v>36871</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4868,7 +4850,7 @@
         <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>65529</v>
+        <v>68167</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4888,49 +4870,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4511</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>7699</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4870</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>12569</v>
+        <v>12210</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>32</v>
+      </c>
+      <c r="D14" s="7">
+        <v>20015</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H14" s="7">
         <v>43</v>
       </c>
-      <c r="D14" s="7">
-        <v>33382</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H14" s="7">
-        <v>32</v>
-      </c>
       <c r="I14" s="7">
-        <v>20303</v>
+        <v>34847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
       </c>
       <c r="N14" s="7">
-        <v>53684</v>
+        <v>54861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,25 +4972,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24526</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>53</v>
       </c>
-      <c r="D15" s="7">
-        <v>41081</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
       <c r="I15" s="7">
-        <v>25173</v>
+        <v>42546</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5023,7 +5005,7 @@
         <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>66253</v>
+        <v>67071</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5043,49 +5025,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19229</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H16" s="7">
         <v>41</v>
       </c>
-      <c r="D16" s="7">
-        <v>25092</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H16" s="7">
-        <v>30</v>
-      </c>
       <c r="I16" s="7">
-        <v>19806</v>
+        <v>25042</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
       </c>
       <c r="N16" s="7">
-        <v>44898</v>
+        <v>44271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,49 +5076,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>123</v>
+      </c>
+      <c r="D17" s="7">
+        <v>81085</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H17" s="7">
         <v>147</v>
       </c>
-      <c r="D17" s="7">
-        <v>101333</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H17" s="7">
-        <v>123</v>
-      </c>
       <c r="I17" s="7">
-        <v>80117</v>
+        <v>106550</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>270</v>
       </c>
       <c r="N17" s="7">
-        <v>181450</v>
+        <v>187635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,25 +5127,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>153</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100314</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>188</v>
       </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
       <c r="I18" s="7">
-        <v>99923</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5178,7 +5160,7 @@
         <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>226348</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
